--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42624.16</v>
+        <v>533333.24</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42624.16</v>
+        <v>133333.31</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42624.16</v>
+        <v>40338.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>347542.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>138497.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6953.95</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,68 +436,91 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533333.24</v>
+        <v>124990.73</v>
+      </c>
+      <c r="C2" t="n">
+        <v>157392.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133333.31</v>
+        <v>6945.31</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6946.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40338.9</v>
+        <v>347044.62</v>
+      </c>
+      <c r="C4" t="n">
+        <v>347109.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347542.47</v>
+        <v>36158.03</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35692.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138497.92</v>
+        <v>128784.67</v>
+      </c>
+      <c r="C6" t="n">
+        <v>136785.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6953.95</v>
+        <v>515138.69</v>
+      </c>
+      <c r="C7" t="n">
+        <v>547141.34</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,79 +443,71 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124990.73</v>
-      </c>
-      <c r="C2" t="n">
-        <v>157392.29</v>
+        <v>20680847.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6945.31</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6946.92</v>
+        <v>4136169.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Adcap Wise Capital Growth</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347044.62</v>
-      </c>
-      <c r="C4" t="n">
-        <v>347109.59</v>
+        <v>20133706.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36158.03</v>
-      </c>
-      <c r="C5" t="n">
-        <v>35692.54</v>
+        <v>157392.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128784.67</v>
-      </c>
-      <c r="C6" t="n">
-        <v>136785.33</v>
+        <v>6946.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515138.69</v>
-      </c>
-      <c r="C7" t="n">
-        <v>547141.34</v>
+        <v>347109.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>HF Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>35692.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,75 +439,110 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Adcap Wise Capital Growth</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20680847.72</v>
+        <v>20133706.38</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17244045.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4136169.54</v>
+        <v>157392.29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>134611.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap Wise Capital Growth</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>20133706.38</v>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>990698.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157392.29</v>
+        <v>6946.92</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6938.89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6946.92</v>
-      </c>
+        <v>347109.59</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347109.59</v>
+        <v>35692.54</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31152.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35692.54</v>
+        <v>4136169.54</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3681489.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20680847.72</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18407446.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>17244045.31</v>
       </c>
+      <c r="D2" t="n">
+        <v>16436565.91</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -469,6 +477,9 @@
       </c>
       <c r="C3" t="n">
         <v>134611.49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128614.44</v>
       </c>
     </row>
     <row r="4">
@@ -481,6 +492,9 @@
       <c r="C4" t="n">
         <v>990698.95</v>
       </c>
+      <c r="D4" t="n">
+        <v>2666594.09</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -494,6 +508,9 @@
       <c r="C5" t="n">
         <v>6938.89</v>
       </c>
+      <c r="D5" t="n">
+        <v>6943.33</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -505,6 +522,9 @@
         <v>347109.59</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>346862.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -518,6 +538,9 @@
       <c r="C7" t="n">
         <v>31152.26</v>
       </c>
+      <c r="D7" t="n">
+        <v>31186.19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -531,6 +554,9 @@
       <c r="C8" t="n">
         <v>3681489.38</v>
       </c>
+      <c r="D8" t="n">
+        <v>3269461.14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -543,6 +569,9 @@
       </c>
       <c r="C9" t="n">
         <v>18407446.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19616766.86</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>16436565.91</v>
       </c>
+      <c r="E2" t="n">
+        <v>16946176.71</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -480,6 +488,9 @@
       </c>
       <c r="D3" t="n">
         <v>128614.44</v>
+      </c>
+      <c r="E3" t="n">
+        <v>132719.44</v>
       </c>
     </row>
     <row r="4">
@@ -495,6 +506,9 @@
       <c r="D4" t="n">
         <v>2666594.09</v>
       </c>
+      <c r="E4" t="n">
+        <v>2746362.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -510,6 +524,9 @@
       </c>
       <c r="D5" t="n">
         <v>6943.33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6956</v>
       </c>
     </row>
     <row r="6">
@@ -525,6 +542,9 @@
       <c r="D6" t="n">
         <v>346862.9</v>
       </c>
+      <c r="E6" t="n">
+        <v>347699.54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -541,6 +561,9 @@
       <c r="D7" t="n">
         <v>31186.19</v>
       </c>
+      <c r="E7" t="n">
+        <v>31264.57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -557,6 +580,9 @@
       <c r="D8" t="n">
         <v>3269461.14</v>
       </c>
+      <c r="E8" t="n">
+        <v>3368529.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -572,6 +598,9 @@
       </c>
       <c r="D9" t="n">
         <v>19616766.86</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20211178.78</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>16946176.71</v>
       </c>
+      <c r="F2" t="n">
+        <v>17303532.77</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +499,9 @@
       </c>
       <c r="E3" t="n">
         <v>132719.44</v>
+      </c>
+      <c r="F3" t="n">
+        <v>235274.96</v>
       </c>
     </row>
     <row r="4">
@@ -509,6 +520,9 @@
       <c r="E4" t="n">
         <v>2746362.52</v>
       </c>
+      <c r="F4" t="n">
+        <v>2813169.58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +541,9 @@
       </c>
       <c r="E5" t="n">
         <v>6956</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6937.02</v>
       </c>
     </row>
     <row r="6">
@@ -545,6 +562,9 @@
       <c r="E6" t="n">
         <v>347699.54</v>
       </c>
+      <c r="F6" t="n">
+        <v>347469.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -564,43 +584,66 @@
       <c r="E7" t="n">
         <v>31264.57</v>
       </c>
+      <c r="F7" t="n">
+        <v>31061.63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4136169.54</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3681489.38</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3269461.14</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3368529.8</v>
+          <t>IAM Renta Variable</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>147805.71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4136169.54</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3681489.38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3269461.14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3368529.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2983607.26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>20680847.72</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18407446.9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>19616766.86</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>20211178.78</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20885250.79</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>17303532.77</v>
       </c>
+      <c r="G2" t="n">
+        <v>18418272.93</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +510,9 @@
       </c>
       <c r="F3" t="n">
         <v>235274.96</v>
+      </c>
+      <c r="G3" t="n">
+        <v>250306.36</v>
       </c>
     </row>
     <row r="4">
@@ -523,6 +534,9 @@
       <c r="F4" t="n">
         <v>2813169.58</v>
       </c>
+      <c r="G4" t="n">
+        <v>2989921.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +558,9 @@
       </c>
       <c r="F5" t="n">
         <v>6937.02</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6934.54</v>
       </c>
     </row>
     <row r="6">
@@ -565,6 +582,9 @@
       <c r="F6" t="n">
         <v>347469.12</v>
       </c>
+      <c r="G6" t="n">
+        <v>346777.72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +606,9 @@
       </c>
       <c r="F7" t="n">
         <v>31061.63</v>
+      </c>
+      <c r="G7" t="n">
+        <v>31089.3</v>
       </c>
     </row>
     <row r="8">
@@ -601,6 +624,9 @@
       <c r="F8" t="n">
         <v>147805.71</v>
       </c>
+      <c r="G8" t="n">
+        <v>157222.32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -623,6 +649,9 @@
       <c r="F9" t="n">
         <v>2983607.26</v>
       </c>
+      <c r="G9" t="n">
+        <v>3171503.56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -644,6 +673,9 @@
       </c>
       <c r="F10" t="n">
         <v>20885250.79</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22200524.92</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>18418272.93</v>
       </c>
+      <c r="H2" t="n">
+        <v>20151835.96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>250306.36</v>
+      </c>
+      <c r="H3" t="n">
+        <v>273993.75</v>
       </c>
     </row>
     <row r="4">
@@ -537,6 +548,9 @@
       <c r="G4" t="n">
         <v>2989921.75</v>
       </c>
+      <c r="H4" t="n">
+        <v>3267077.83</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +575,9 @@
       </c>
       <c r="G5" t="n">
         <v>6934.54</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6944.9</v>
       </c>
     </row>
     <row r="6">
@@ -585,6 +602,9 @@
       <c r="G6" t="n">
         <v>346777.72</v>
       </c>
+      <c r="H6" t="n">
+        <v>347143.99</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +629,9 @@
       </c>
       <c r="G7" t="n">
         <v>31089.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30152.58</v>
       </c>
     </row>
     <row r="8">
@@ -627,6 +650,9 @@
       <c r="G8" t="n">
         <v>157222.32</v>
       </c>
+      <c r="H8" t="n">
+        <v>172140.28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -652,6 +678,9 @@
       <c r="G9" t="n">
         <v>3171503.56</v>
       </c>
+      <c r="H9" t="n">
+        <v>3464184.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -676,6 +705,9 @@
       </c>
       <c r="G10" t="n">
         <v>22200524.92</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24249289.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>20151835.96</v>
       </c>
+      <c r="I2" t="n">
+        <v>16957905.34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +532,9 @@
       </c>
       <c r="H3" t="n">
         <v>273993.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>280364.35</v>
       </c>
     </row>
     <row r="4">
@@ -551,6 +562,9 @@
       <c r="H4" t="n">
         <v>3267077.83</v>
       </c>
+      <c r="I4" t="n">
+        <v>3349349.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +592,9 @@
       </c>
       <c r="H5" t="n">
         <v>6944.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6937.57</v>
       </c>
     </row>
     <row r="6">
@@ -605,6 +622,9 @@
       <c r="H6" t="n">
         <v>347143.99</v>
       </c>
+      <c r="I6" t="n">
+        <v>347063.33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +652,9 @@
       </c>
       <c r="H7" t="n">
         <v>30152.58</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19784.96</v>
       </c>
     </row>
     <row r="8">
@@ -653,6 +676,9 @@
       <c r="H8" t="n">
         <v>172140.28</v>
       </c>
+      <c r="I8" t="n">
+        <v>176152.62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -681,6 +707,9 @@
       <c r="H9" t="n">
         <v>3464184.18</v>
       </c>
+      <c r="I9" t="n">
+        <v>3019651.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -708,6 +737,9 @@
       </c>
       <c r="H10" t="n">
         <v>24249289.29</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21137557.37</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>16957905.34</v>
       </c>
+      <c r="J2" t="n">
+        <v>16743003.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +543,9 @@
       </c>
       <c r="I3" t="n">
         <v>280364.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>218718</v>
       </c>
     </row>
     <row r="4">
@@ -565,6 +576,9 @@
       <c r="I4" t="n">
         <v>3349349.2</v>
       </c>
+      <c r="J4" t="n">
+        <v>3316974.12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +609,9 @@
       </c>
       <c r="I5" t="n">
         <v>6937.57</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6952.37</v>
       </c>
     </row>
     <row r="6">
@@ -625,6 +642,9 @@
       <c r="I6" t="n">
         <v>347063.33</v>
       </c>
+      <c r="J6" t="n">
+        <v>347191.82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -655,6 +675,9 @@
       </c>
       <c r="I7" t="n">
         <v>19784.96</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19331.89</v>
       </c>
     </row>
     <row r="8">
@@ -679,6 +702,9 @@
       <c r="I8" t="n">
         <v>176152.62</v>
       </c>
+      <c r="J8" t="n">
+        <v>380750.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -710,6 +736,9 @@
       <c r="I9" t="n">
         <v>3019651.05</v>
       </c>
+      <c r="J9" t="n">
+        <v>3004703.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -740,6 +769,9 @@
       </c>
       <c r="I10" t="n">
         <v>21137557.37</v>
+      </c>
+      <c r="J10" t="n">
+        <v>21032921.8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>16743003.1</v>
       </c>
+      <c r="K2" t="n">
+        <v>18306927.41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +554,9 @@
       </c>
       <c r="J3" t="n">
         <v>218718</v>
+      </c>
+      <c r="K3" t="n">
+        <v>177490.9</v>
       </c>
     </row>
     <row r="4">
@@ -579,6 +590,9 @@
       <c r="J4" t="n">
         <v>3316974.12</v>
       </c>
+      <c r="K4" t="n">
+        <v>3588377.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -612,6 +626,9 @@
       </c>
       <c r="J5" t="n">
         <v>6952.37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6935.93</v>
       </c>
     </row>
     <row r="6">
@@ -645,6 +662,9 @@
       <c r="J6" t="n">
         <v>347191.82</v>
       </c>
+      <c r="K6" t="n">
+        <v>346807.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -678,6 +698,9 @@
       </c>
       <c r="J7" t="n">
         <v>19331.89</v>
+      </c>
+      <c r="K7" t="n">
+        <v>19251.02</v>
       </c>
     </row>
     <row r="8">
@@ -705,6 +728,9 @@
       <c r="J8" t="n">
         <v>380750.5</v>
       </c>
+      <c r="K8" t="n">
+        <v>412921.77</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -739,6 +765,9 @@
       <c r="J9" t="n">
         <v>3004703.11</v>
       </c>
+      <c r="K9" t="n">
+        <v>3265530.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -772,6 +801,9 @@
       </c>
       <c r="J10" t="n">
         <v>21032921.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22858712.78</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>18306927.41</v>
       </c>
+      <c r="L2" t="n">
+        <v>18828707.28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +565,9 @@
       </c>
       <c r="K3" t="n">
         <v>177490.9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>182692.24</v>
       </c>
     </row>
     <row r="4">
@@ -593,6 +604,9 @@
       <c r="K4" t="n">
         <v>3588377.95</v>
       </c>
+      <c r="L4" t="n">
+        <v>3692217.78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,6 +643,9 @@
       </c>
       <c r="K5" t="n">
         <v>6935.93</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6939.56</v>
       </c>
     </row>
     <row r="6">
@@ -665,6 +682,9 @@
       <c r="K6" t="n">
         <v>346807.8</v>
       </c>
+      <c r="L6" t="n">
+        <v>348073.87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -701,6 +721,9 @@
       </c>
       <c r="K7" t="n">
         <v>19251.02</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9987.32</v>
       </c>
     </row>
     <row r="8">
@@ -731,6 +754,9 @@
       <c r="K8" t="n">
         <v>412921.77</v>
       </c>
+      <c r="L8" t="n">
+        <v>282474.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -768,6 +794,9 @@
       <c r="K9" t="n">
         <v>3265530.4</v>
       </c>
+      <c r="L9" t="n">
+        <v>3335870.34</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -804,6 +833,9 @@
       </c>
       <c r="K10" t="n">
         <v>22858712.78</v>
+      </c>
+      <c r="L10" t="n">
+        <v>23351092.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LEDE.xlsx
+++ b/backend/src/excel_handler/files/LEDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>18828707.28</v>
       </c>
+      <c r="M2" t="n">
+        <v>19061564.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +576,9 @@
       </c>
       <c r="L3" t="n">
         <v>182692.24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>188203.04</v>
       </c>
     </row>
     <row r="4">
@@ -607,6 +618,9 @@
       <c r="L4" t="n">
         <v>3692217.78</v>
       </c>
+      <c r="M4" t="n">
+        <v>3794304.53</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -646,6 +660,9 @@
       </c>
       <c r="L5" t="n">
         <v>6939.56</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6938.58</v>
       </c>
     </row>
     <row r="6">
@@ -685,6 +702,9 @@
       <c r="L6" t="n">
         <v>348073.87</v>
       </c>
+      <c r="M6" t="n">
+        <v>347050.63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -724,6 +744,9 @@
       </c>
       <c r="L7" t="n">
         <v>9987.32</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10001.33</v>
       </c>
     </row>
     <row r="8">
@@ -757,6 +780,7 @@
       <c r="L8" t="n">
         <v>282474.35</v>
       </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -797,6 +821,9 @@
       <c r="L9" t="n">
         <v>3335870.34</v>
       </c>
+      <c r="M9" t="n">
+        <v>3901343.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -836,6 +863,9 @@
       </c>
       <c r="L10" t="n">
         <v>23351092.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>23408062.21</v>
       </c>
     </row>
   </sheetData>
